--- a/2018/remaining.xlsx
+++ b/2018/remaining.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -115,174 +115,1171 @@
     <t>31.以上英语考试的成绩为：（例：大学英语四级：570；托福：90）</t>
   </si>
   <si>
-    <t>0039000002H8mgz</t>
-  </si>
-  <si>
-    <t>003900000233dZD</t>
-  </si>
-  <si>
-    <t>0039000002InQIi</t>
-  </si>
-  <si>
-    <t>0039000002EFlmz</t>
-  </si>
-  <si>
-    <t>0039000002InDAw</t>
-  </si>
-  <si>
-    <t>0039000002H8yO0</t>
-  </si>
-  <si>
-    <t>0039000002IlYDH</t>
-  </si>
-  <si>
-    <t>0039000002LHVSJ</t>
-  </si>
-  <si>
-    <t>唐诗语</t>
-  </si>
-  <si>
-    <t>黄斌</t>
-  </si>
-  <si>
-    <t>何庆文</t>
-  </si>
-  <si>
-    <t>胡兆祥</t>
-  </si>
-  <si>
-    <t>汤佳烨</t>
-  </si>
-  <si>
-    <t>陈嫱曦</t>
-  </si>
-  <si>
-    <t>李斌铧</t>
-  </si>
-  <si>
-    <t>万长利</t>
+    <t>0039000002BzB88</t>
+  </si>
+  <si>
+    <t>0039000002Im8Jp</t>
+  </si>
+  <si>
+    <t>0039000002In7QE</t>
+  </si>
+  <si>
+    <t>0039000001vMJY5</t>
+  </si>
+  <si>
+    <t>0039000002H8xT6</t>
+  </si>
+  <si>
+    <t>0039000002ImiYQ</t>
+  </si>
+  <si>
+    <t>0039000002NITlg</t>
+  </si>
+  <si>
+    <t>0039000002Ilm96</t>
+  </si>
+  <si>
+    <t>003900000190nGY</t>
+  </si>
+  <si>
+    <t>0039000002InFl6</t>
+  </si>
+  <si>
+    <t>0039000002H8xkJ</t>
+  </si>
+  <si>
+    <t>0039000002LIkSX</t>
+  </si>
+  <si>
+    <t>0039000002ImoDm</t>
+  </si>
+  <si>
+    <t>0039000002LIUa3</t>
+  </si>
+  <si>
+    <t>0039000002ImuHs</t>
+  </si>
+  <si>
+    <t>0039000002LIkn6</t>
+  </si>
+  <si>
+    <t>0039000002Ineqh</t>
+  </si>
+  <si>
+    <t>0039000002IlVUb</t>
+  </si>
+  <si>
+    <t>0039000002LGWLh</t>
+  </si>
+  <si>
+    <t>0039000002LJrzy</t>
+  </si>
+  <si>
+    <t>0039000002LI4ey</t>
+  </si>
+  <si>
+    <t>0039000002NIUQo</t>
+  </si>
+  <si>
+    <t>0039000002LGXJ2</t>
+  </si>
+  <si>
+    <t>0039000002EFWSr</t>
+  </si>
+  <si>
+    <t>0039000002InJIj</t>
+  </si>
+  <si>
+    <t>0039000002LHI1W</t>
+  </si>
+  <si>
+    <t>0039000002ImkQo</t>
+  </si>
+  <si>
+    <t>003900000248ID1</t>
+  </si>
+  <si>
+    <t>0039000002GPdvm</t>
+  </si>
+  <si>
+    <t>0039000002EHmLt</t>
+  </si>
+  <si>
+    <t>0039000002H9B5o</t>
+  </si>
+  <si>
+    <t>0039000002LGdl9</t>
+  </si>
+  <si>
+    <t>0039000001aQfQA</t>
+  </si>
+  <si>
+    <t>0039000002IosYD</t>
+  </si>
+  <si>
+    <t>0039000002LIC8E</t>
+  </si>
+  <si>
+    <t>0039000002ImiXU</t>
+  </si>
+  <si>
+    <t>00390000027F1Sd</t>
+  </si>
+  <si>
+    <t>0039000002Ilfhf</t>
+  </si>
+  <si>
+    <t>0039000002Ip5UQ</t>
+  </si>
+  <si>
+    <t>0039000002H93w6</t>
+  </si>
+  <si>
+    <t>0039000002GPzEg</t>
+  </si>
+  <si>
+    <t>0039000002H8xgR</t>
+  </si>
+  <si>
+    <t>0039000002EI5PS</t>
+  </si>
+  <si>
+    <t>0039000002GOY9o</t>
+  </si>
+  <si>
+    <t>0039000002IodUx</t>
+  </si>
+  <si>
+    <t>0039000002A5hjV</t>
+  </si>
+  <si>
+    <t>0039000002LJsmm</t>
+  </si>
+  <si>
+    <t>0039000002In7st</t>
+  </si>
+  <si>
+    <t>0039000002ImmN0</t>
+  </si>
+  <si>
+    <t>0039000002H9oQU</t>
+  </si>
+  <si>
+    <t>0039000002H9mIr</t>
+  </si>
+  <si>
+    <t>0039000002IoltD</t>
+  </si>
+  <si>
+    <t>0039000002IpDVv</t>
+  </si>
+  <si>
+    <t>0039000002InLmI</t>
+  </si>
+  <si>
+    <t>0039000002EFwoa</t>
+  </si>
+  <si>
+    <t>0039000002InkaL</t>
+  </si>
+  <si>
+    <t>0039000002H9hL4</t>
+  </si>
+  <si>
+    <t>0039000002IlquH</t>
+  </si>
+  <si>
+    <t>0039000002LJejM</t>
+  </si>
+  <si>
+    <t>0039000002ImMei</t>
+  </si>
+  <si>
+    <t>0039000002Ilgbt</t>
+  </si>
+  <si>
+    <t>0039000002EICgp</t>
+  </si>
+  <si>
+    <t>0039000002HAKNB</t>
+  </si>
+  <si>
+    <t>0039000002LJsnC</t>
+  </si>
+  <si>
+    <t>0039000002GOoiP</t>
+  </si>
+  <si>
+    <t>0039000001CZi0Q</t>
+  </si>
+  <si>
+    <t>0039000002IoECj</t>
+  </si>
+  <si>
+    <t>0039000002LJ5aX</t>
+  </si>
+  <si>
+    <t>0039000002Ip8fs</t>
+  </si>
+  <si>
+    <t>0039000002LJ64u</t>
+  </si>
+  <si>
+    <t>0039000002LIFlE</t>
+  </si>
+  <si>
+    <t>0039000002LH1uq</t>
+  </si>
+  <si>
+    <t>0039000002In9fC</t>
+  </si>
+  <si>
+    <t>0039000002IlYeh</t>
+  </si>
+  <si>
+    <t>0039000002InGEv</t>
+  </si>
+  <si>
+    <t>0039000002InUhk</t>
+  </si>
+  <si>
+    <t>003900000247U7j</t>
+  </si>
+  <si>
+    <t>覃菲</t>
+  </si>
+  <si>
+    <t>方丹</t>
+  </si>
+  <si>
+    <t>刘艳妮</t>
+  </si>
+  <si>
+    <t>张雪</t>
+  </si>
+  <si>
+    <t>雷鸣</t>
+  </si>
+  <si>
+    <t>常奔</t>
+  </si>
+  <si>
+    <t>刘洪</t>
+  </si>
+  <si>
+    <t>高纯萃</t>
+  </si>
+  <si>
+    <t>李婷</t>
+  </si>
+  <si>
+    <t>吕艳艳</t>
+  </si>
+  <si>
+    <t>陈佩芬</t>
+  </si>
+  <si>
+    <t>杜欣遥</t>
+  </si>
+  <si>
+    <t>丁肖潇</t>
+  </si>
+  <si>
+    <t>郑如意</t>
+  </si>
+  <si>
+    <t>王金嵩</t>
+  </si>
+  <si>
+    <t>胡卓安</t>
+  </si>
+  <si>
+    <t>李婷婷</t>
+  </si>
+  <si>
+    <t>付玥</t>
+  </si>
+  <si>
+    <t>任怿</t>
+  </si>
+  <si>
+    <t>陈圣临炀</t>
+  </si>
+  <si>
+    <t>傅亦亭</t>
+  </si>
+  <si>
+    <t>张子率</t>
+  </si>
+  <si>
+    <t>姚玲玲</t>
+  </si>
+  <si>
+    <t>李超军</t>
+  </si>
+  <si>
+    <t>窦同彤</t>
+  </si>
+  <si>
+    <t>银思源</t>
+  </si>
+  <si>
+    <t>王重元</t>
+  </si>
+  <si>
+    <t>李璐璐</t>
+  </si>
+  <si>
+    <t>秦志</t>
+  </si>
+  <si>
+    <t>宋小燕</t>
+  </si>
+  <si>
+    <t>廖璇</t>
+  </si>
+  <si>
+    <t>赵太娥</t>
+  </si>
+  <si>
+    <t>徐玉</t>
+  </si>
+  <si>
+    <t>金凯琳</t>
+  </si>
+  <si>
+    <t>栾静雅</t>
+  </si>
+  <si>
+    <t>罗雪丹</t>
+  </si>
+  <si>
+    <t>张妍</t>
+  </si>
+  <si>
+    <t>刘同兴</t>
+  </si>
+  <si>
+    <t>张雅新</t>
+  </si>
+  <si>
+    <t>范程程</t>
+  </si>
+  <si>
+    <t>王佐</t>
+  </si>
+  <si>
+    <t>王璐菲</t>
+  </si>
+  <si>
+    <t>林笑</t>
+  </si>
+  <si>
+    <t>肖丽珍</t>
+  </si>
+  <si>
+    <t>张丽珍</t>
+  </si>
+  <si>
+    <t>原莹</t>
+  </si>
+  <si>
+    <t>姚凤洁</t>
+  </si>
+  <si>
+    <t>刘钰</t>
+  </si>
+  <si>
+    <t>南诗懿</t>
+  </si>
+  <si>
+    <t>唐忠军</t>
+  </si>
+  <si>
+    <t>袁剑</t>
+  </si>
+  <si>
+    <t>彭宇</t>
+  </si>
+  <si>
+    <t>刘婷</t>
+  </si>
+  <si>
+    <t>冯欣宇</t>
+  </si>
+  <si>
+    <t>张靖悦</t>
+  </si>
+  <si>
+    <t>杨秀梅</t>
+  </si>
+  <si>
+    <t>张世荣</t>
+  </si>
+  <si>
+    <t>刘英伟</t>
+  </si>
+  <si>
+    <t>李静仪</t>
+  </si>
+  <si>
+    <t>周金连</t>
+  </si>
+  <si>
+    <t>王宏建</t>
+  </si>
+  <si>
+    <t>刘浏</t>
+  </si>
+  <si>
+    <t>徐莎</t>
+  </si>
+  <si>
+    <t>丁琪凡</t>
+  </si>
+  <si>
+    <t>吕楠</t>
+  </si>
+  <si>
+    <t>王俊茜</t>
+  </si>
+  <si>
+    <t>余尧</t>
+  </si>
+  <si>
+    <t>符隽</t>
+  </si>
+  <si>
+    <t>李磊</t>
+  </si>
+  <si>
+    <t>张鹏义</t>
+  </si>
+  <si>
+    <t>邢群</t>
+  </si>
+  <si>
+    <t>曹倩如</t>
+  </si>
+  <si>
+    <t>文占威</t>
+  </si>
+  <si>
+    <t>林秀婷</t>
+  </si>
+  <si>
+    <t>郑瑞芳</t>
+  </si>
+  <si>
+    <t>姚凯</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>女士</t>
   </si>
   <si>
     <t>男士</t>
   </si>
   <si>
-    <t>女士</t>
+    <t>文科</t>
   </si>
   <si>
     <t>理科</t>
   </si>
   <si>
-    <t>文科</t>
-  </si>
-  <si>
     <t>综合</t>
   </si>
   <si>
+    <t>研究生（硕士）</t>
+  </si>
+  <si>
     <t>本科</t>
   </si>
   <si>
-    <t>研究生（硕士）</t>
-  </si>
-  <si>
-    <t>南方科技大学</t>
-  </si>
-  <si>
-    <t>福建师范大学</t>
-  </si>
-  <si>
-    <t>海南师范大学</t>
-  </si>
-  <si>
-    <t>河北大学</t>
-  </si>
-  <si>
-    <t>中国传媒大学</t>
-  </si>
-  <si>
-    <t>National University</t>
-  </si>
-  <si>
-    <t>西安邮电大学</t>
-  </si>
-  <si>
-    <t>中北大学</t>
+    <t>潍坊学院</t>
+  </si>
+  <si>
+    <t>四川师范大学</t>
+  </si>
+  <si>
+    <t>华中农业大学</t>
+  </si>
+  <si>
+    <t>洛阳理工学院</t>
+  </si>
+  <si>
+    <t>河南大学</t>
+  </si>
+  <si>
+    <t>吉林工商学院</t>
+  </si>
+  <si>
+    <t>西南大学</t>
+  </si>
+  <si>
+    <t>广东外语外贸大学</t>
+  </si>
+  <si>
+    <t>云南大学</t>
+  </si>
+  <si>
+    <t>华南农业大学</t>
+  </si>
+  <si>
+    <t>汕头大学</t>
+  </si>
+  <si>
+    <t>四川美术学院</t>
+  </si>
+  <si>
+    <t>中南财经政法大学</t>
+  </si>
+  <si>
+    <t>江西师范大学</t>
+  </si>
+  <si>
+    <t>南京农业大学</t>
+  </si>
+  <si>
+    <t>厦门大学</t>
+  </si>
+  <si>
+    <t>山东师范大学</t>
+  </si>
+  <si>
+    <t>天津外国语大学</t>
+  </si>
+  <si>
+    <t>山东大学</t>
+  </si>
+  <si>
+    <t>福建医科大学</t>
+  </si>
+  <si>
+    <t>上海电力学院</t>
+  </si>
+  <si>
+    <t>南京林业大学</t>
+  </si>
+  <si>
+    <t>英国苏塞克斯大学</t>
+  </si>
+  <si>
+    <t>南京工业大学</t>
+  </si>
+  <si>
+    <t>海南大学</t>
+  </si>
+  <si>
+    <t>沈阳理工大学</t>
+  </si>
+  <si>
+    <t>山东理工大学</t>
+  </si>
+  <si>
+    <t>西南科技大学</t>
+  </si>
+  <si>
+    <t>长沙理工大学</t>
+  </si>
+  <si>
+    <t>东北师范大学</t>
+  </si>
+  <si>
+    <t>中国地质大学北京</t>
+  </si>
+  <si>
+    <t>中央财经大学</t>
+  </si>
+  <si>
+    <t>南华大学</t>
+  </si>
+  <si>
+    <t>南京师范大学</t>
+  </si>
+  <si>
+    <t>四川大学</t>
+  </si>
+  <si>
+    <t>烟台大学</t>
+  </si>
+  <si>
+    <t>合肥师范学院</t>
+  </si>
+  <si>
+    <t>山西大学</t>
+  </si>
+  <si>
+    <t>哈尔滨工程大学</t>
+  </si>
+  <si>
+    <t>中南林业科技大学涉外学院</t>
+  </si>
+  <si>
+    <t>辽宁大学</t>
+  </si>
+  <si>
+    <t>重庆师范大学涉外商贸学院</t>
+  </si>
+  <si>
+    <t>南方医科大学</t>
+  </si>
+  <si>
+    <t>湖南师范大学</t>
+  </si>
+  <si>
+    <t>加州大学戴维斯分校</t>
+  </si>
+  <si>
+    <t>范德堡大学</t>
+  </si>
+  <si>
+    <t>广州大学</t>
+  </si>
+  <si>
+    <t>天津财经大学</t>
+  </si>
+  <si>
+    <t>中国石油大学北京</t>
+  </si>
+  <si>
+    <t>哈德斯菲尔德大学</t>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+  </si>
+  <si>
+    <t>南京邮电大学</t>
+  </si>
+  <si>
+    <t>哈尔滨医科大学</t>
+  </si>
+  <si>
+    <t>中国石油大学（北京）</t>
+  </si>
+  <si>
+    <t>辽宁科技大学</t>
+  </si>
+  <si>
+    <t>山西师范大学</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>上海海洋大学</t>
+  </si>
+  <si>
+    <t>行政管理</t>
+  </si>
+  <si>
+    <t>特殊教育</t>
+  </si>
+  <si>
+    <t>园艺</t>
+  </si>
+  <si>
+    <t>工程管理</t>
+  </si>
+  <si>
+    <t>历史学</t>
+  </si>
+  <si>
+    <t>机械电子工程</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>英语（国际贸易）</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>蚕学</t>
+  </si>
+  <si>
+    <t>工商管理</t>
+  </si>
+  <si>
+    <t>绘画</t>
   </si>
   <si>
     <t>金融学</t>
   </si>
   <si>
-    <t>汉语言文学师范专业</t>
-  </si>
-  <si>
-    <t>体育教育</t>
+    <t>旅游管理</t>
+  </si>
+  <si>
+    <t>环境工程</t>
+  </si>
+  <si>
+    <t>法语语言文学</t>
+  </si>
+  <si>
+    <t>汉语国际教育</t>
+  </si>
+  <si>
+    <t>汉语言文学</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>(医学)英语</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>媒体实践</t>
+  </si>
+  <si>
+    <t>生物工程</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>机械设计制造及其自动化</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>能源与动力工程</t>
+  </si>
+  <si>
+    <t>环境设计</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>国际经济与贸易</t>
   </si>
   <si>
     <t>会计学</t>
   </si>
   <si>
-    <t>数字媒体技术</t>
-  </si>
-  <si>
-    <t>工商管理（BBA）</t>
-  </si>
-  <si>
-    <t>工业工程</t>
-  </si>
-  <si>
-    <t>社会体育</t>
+    <t>通信工程</t>
+  </si>
+  <si>
+    <t>应用心理学</t>
+  </si>
+  <si>
+    <t>机械设计制造及其自动化（辅修行政管理）</t>
+  </si>
+  <si>
+    <t>食品科学与工程</t>
+  </si>
+  <si>
+    <t>网络与新媒体</t>
+  </si>
+  <si>
+    <t>材料科学与工程</t>
   </si>
   <si>
     <t>经济学</t>
   </si>
   <si>
+    <t>新闻学</t>
+  </si>
+  <si>
+    <t>公共管理</t>
+  </si>
+  <si>
+    <t>工业自动化</t>
+  </si>
+  <si>
+    <t>人力资源管理</t>
+  </si>
+  <si>
+    <t>行政管理+英语</t>
+  </si>
+  <si>
+    <t>广播电视编导（数码影视制作）</t>
+  </si>
+  <si>
+    <t>英语(国际贸易)</t>
+  </si>
+  <si>
+    <t>人文地理与城乡规划</t>
+  </si>
+  <si>
+    <t>艺术史</t>
+  </si>
+  <si>
+    <t>历史，儿童心理</t>
+  </si>
+  <si>
+    <t>会展经济与管理</t>
+  </si>
+  <si>
+    <t>物流管理</t>
+  </si>
+  <si>
+    <t>油气储运</t>
+  </si>
+  <si>
+    <t>公共事业管理</t>
+  </si>
+  <si>
+    <t>英语语言文学</t>
+  </si>
+  <si>
+    <t>市场营销</t>
+  </si>
+  <si>
+    <t>病理检验</t>
+  </si>
+  <si>
+    <t>广播电视新闻学</t>
+  </si>
+  <si>
+    <t>人文科学</t>
+  </si>
+  <si>
+    <t>水产养殖学</t>
+  </si>
+  <si>
+    <t>管理学</t>
+  </si>
+  <si>
+    <t>教育学</t>
+  </si>
+  <si>
+    <t>农学</t>
+  </si>
+  <si>
+    <t>工学</t>
+  </si>
+  <si>
     <t>文学</t>
   </si>
   <si>
-    <t>教育学</t>
-  </si>
-  <si>
-    <t>管理学</t>
-  </si>
-  <si>
-    <t>工学</t>
-  </si>
-  <si>
-    <t>国际新闻学</t>
+    <t>艺术学</t>
+  </si>
+  <si>
+    <t>理学</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>西南民族大学</t>
+  </si>
+  <si>
+    <t>福州大学</t>
+  </si>
+  <si>
+    <t>西南政法大学</t>
+  </si>
+  <si>
+    <t>北京中医药大学</t>
+  </si>
+  <si>
+    <t>曼彻斯特大学</t>
+  </si>
+  <si>
+    <t>西南财经大学</t>
+  </si>
+  <si>
+    <t>东北财经大学</t>
+  </si>
+  <si>
+    <t>农村与区域发展</t>
+  </si>
+  <si>
+    <t>中国少数民族史</t>
+  </si>
+  <si>
+    <t>外国语言学及应用语言学</t>
+  </si>
+  <si>
+    <t>卫生事业管理</t>
+  </si>
+  <si>
+    <t>文物与博物馆</t>
+  </si>
+  <si>
+    <t>产业经济学</t>
+  </si>
+  <si>
+    <t>生物学</t>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>颈椎病 多晒太阳</t>
+  </si>
+  <si>
+    <t>肾炎已治愈</t>
+  </si>
+  <si>
+    <t>都可以</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
     <t>广东</t>
   </si>
   <si>
     <t>云南</t>
   </si>
   <si>
-    <t>甘肃</t>
+    <t>（专八）合格</t>
+  </si>
+  <si>
+    <t>（专四）优秀；（专八）合格</t>
+  </si>
+  <si>
+    <t>（专四）优秀</t>
+  </si>
+  <si>
+    <t>其他: 校四级</t>
+  </si>
+  <si>
+    <t>大学英语四级，大学英语六级</t>
+  </si>
+  <si>
+    <t>其他: 无</t>
+  </si>
+  <si>
+    <t>英语专业八级</t>
+  </si>
+  <si>
+    <t>大学英语四级，大学英语六级，托福/雅思，其他: 剑桥商务英语中级</t>
+  </si>
+  <si>
+    <t>大学英语四级，大学英语六级，托福/雅思，其他: 法语专业四级</t>
+  </si>
+  <si>
+    <t>英语专业四级，英语专业八级</t>
+  </si>
+  <si>
+    <t>大学英语六级，其他: TOEIC商务英语</t>
+  </si>
+  <si>
+    <t>大学英语四级，大学英语六级，英语专业四级，英语专业八级</t>
+  </si>
+  <si>
+    <t>大学英语四级，大学英语六级，英语专业四级</t>
   </si>
   <si>
     <t>大学英语四级，大学英语六级，托福/雅思</t>
   </si>
   <si>
-    <t>其他: 无</t>
-  </si>
-  <si>
-    <t>雅思7分</t>
-  </si>
-  <si>
-    <t>大学英语六级:512</t>
-  </si>
-  <si>
-    <t>雅思: 7.5_x000D_
-大学英语六级: 552_x000D_
-大学英语四级: 582</t>
-  </si>
-  <si>
-    <t>托福78</t>
+    <t>其他: 外语语种是日语</t>
+  </si>
+  <si>
+    <t>大学英语六级，托福/雅思</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>大学英语四级，托福/雅思</t>
+  </si>
+  <si>
+    <t>大学英语四级，大学英语六级，托福/雅思，GRE/GMAT</t>
+  </si>
+  <si>
+    <t>英语专业四级，英语专业八级，托福/雅思</t>
+  </si>
+  <si>
+    <t>大学英语六级：450</t>
+  </si>
+  <si>
+    <t>70/100</t>
+  </si>
+  <si>
+    <t>大学英语四级：430_x000D_
+大学英语六级：409</t>
+  </si>
+  <si>
+    <t>大学英语六级: 483</t>
+  </si>
+  <si>
+    <t>大学英语六级:429</t>
+  </si>
+  <si>
+    <t>大学英语四级：428</t>
+  </si>
+  <si>
+    <t>英语专业八级：合格。（具体成绩记不清楚了）</t>
+  </si>
+  <si>
+    <t>不大记得分数</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>剑桥商务英语中级 _x000D_
+大学英语六级  555</t>
+  </si>
+  <si>
+    <t>雅思：5.5</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>大学英语四级:436</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>大学英语四级：627 六级：529 雅思：7分 法语专业四级：良好</t>
+  </si>
+  <si>
+    <t>英语六级：459</t>
+  </si>
+  <si>
+    <t>英语专四优秀，英语专八合格</t>
+  </si>
+  <si>
+    <t>大学英语六级495</t>
+  </si>
+  <si>
+    <t>雅思：6</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>大学英语四级:410</t>
+  </si>
+  <si>
+    <t>大学英语六级：476_x000D_
+托业商务英语：760</t>
+  </si>
+  <si>
+    <t>大学四级:530 大学六级:528 专业四级 :61专业八级:未知</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>大学英语四级：473</t>
+  </si>
+  <si>
+    <t>英语四级485</t>
+  </si>
+  <si>
+    <t>大学英语四级：456</t>
+  </si>
+  <si>
+    <t>大学英语四级：543  大学英语六级：566  英语专业四级：优秀</t>
+  </si>
+  <si>
+    <t>大学英语四级:487</t>
+  </si>
+  <si>
+    <t>大学英语六级 429</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>大学英语四级：429</t>
+  </si>
+  <si>
+    <t>大学英语四级：507_x000D_
+大学英语六级：430_x000D_
+雅思：6</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>六级455</t>
+  </si>
+  <si>
+    <t>大学英语四级：550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日语等级考试JLPT一级114分_x000D_
+</t>
+  </si>
+  <si>
+    <t>大学英语六级：443_x000D_
+雅思：6.5</t>
+  </si>
+  <si>
+    <t>大学英语六级：465</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>大学英语四级:586  大学英语六级:483</t>
+  </si>
+  <si>
+    <t>托福：110</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>忘记了</t>
+  </si>
+  <si>
+    <t>大学英语6级：511</t>
+  </si>
+  <si>
+    <t>大学英语四级 451</t>
+  </si>
+  <si>
+    <t>大学英语四级：436</t>
   </si>
   <si>
     <t>大学英语四级：432</t>
+  </si>
+  <si>
+    <t>大学英语四级：520   雅思：6.0</t>
+  </si>
+  <si>
+    <t>大学英语四级: 491</t>
+  </si>
+  <si>
+    <t>大学英语四级:563</t>
+  </si>
+  <si>
+    <t>雅思：8分_x000D_
+gmat:760_x000D_
+大学英语六级：542_x000D_
+大学英语四级：573</t>
+  </si>
+  <si>
+    <t>四级465</t>
+  </si>
+  <si>
+    <t>大学英语四级：549_x000D_
+大学英语六级：504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雅思7分_x000D_
+</t>
+  </si>
+  <si>
+    <t>大学英语四级：426</t>
+  </si>
+  <si>
+    <t>大学英语六级：487</t>
+  </si>
+  <si>
+    <t>大学英语六级：519</t>
   </si>
 </sst>
 </file>
@@ -640,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -752,10 +1749,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -773,40 +1770,49 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>310</v>
+      </c>
+      <c r="N2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" t="s">
+        <v>310</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X2" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2">
-        <v>7</v>
+        <v>336</v>
+      </c>
+      <c r="AB2">
+        <v>450</v>
       </c>
       <c r="AF2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -814,10 +1820,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -835,40 +1841,37 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X3" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3">
-        <v>525</v>
+        <v>336</v>
       </c>
       <c r="AF3" t="s">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c r="AG3" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -876,55 +1879,73 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>312</v>
+      </c>
+      <c r="N4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" t="s">
+        <v>312</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>336</v>
+      </c>
+      <c r="AA4">
+        <v>430</v>
+      </c>
+      <c r="AB4">
+        <v>409</v>
       </c>
       <c r="AF4" t="s">
-        <v>26</v>
+        <v>344</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -932,10 +1953,10 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -953,34 +1974,40 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z5" t="s">
-        <v>79</v>
+        <v>336</v>
+      </c>
+      <c r="AB5">
+        <v>483</v>
       </c>
       <c r="AF5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -988,13 +2015,13 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1009,55 +2036,49 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V6" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6">
-        <v>582</v>
+        <v>336</v>
       </c>
       <c r="AB6">
-        <v>552</v>
-      </c>
-      <c r="AC6">
-        <v>7.5</v>
+        <v>429</v>
       </c>
       <c r="AF6" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1065,10 +2086,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1077,49 +2098,43 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC7">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AF7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>87</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1127,61 +2142,61 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="X8" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AA8">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AF8" t="s">
         <v>26</v>
       </c>
       <c r="AG8" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1189,55 +2204,4351 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" t="s">
+        <v>314</v>
+      </c>
+      <c r="T9" t="s">
+        <v>332</v>
+      </c>
+      <c r="V9" t="s">
+        <v>332</v>
+      </c>
+      <c r="X9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" t="s">
+        <v>260</v>
+      </c>
+      <c r="M10" t="s">
+        <v>314</v>
+      </c>
+      <c r="T10" t="s">
+        <v>332</v>
+      </c>
+      <c r="V10" t="s">
+        <v>332</v>
+      </c>
+      <c r="X10" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+      <c r="T11" t="s">
+        <v>332</v>
+      </c>
+      <c r="V11" t="s">
+        <v>332</v>
+      </c>
+      <c r="X11" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA11">
+        <v>478</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12" t="s">
+        <v>310</v>
+      </c>
+      <c r="T12" t="s">
+        <v>332</v>
+      </c>
+      <c r="V12" t="s">
+        <v>332</v>
+      </c>
+      <c r="X12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB12">
+        <v>555</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" t="s">
+        <v>315</v>
+      </c>
+      <c r="T13" t="s">
+        <v>332</v>
+      </c>
+      <c r="V13" t="s">
+        <v>332</v>
+      </c>
+      <c r="X13" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC13">
+        <v>5.5</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M14" t="s">
+        <v>289</v>
+      </c>
+      <c r="T14" t="s">
+        <v>332</v>
+      </c>
+      <c r="V14" t="s">
+        <v>332</v>
+      </c>
+      <c r="X14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB14">
+        <v>538</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" t="s">
+        <v>265</v>
+      </c>
+      <c r="M15" t="s">
+        <v>310</v>
+      </c>
+      <c r="T15" t="s">
+        <v>332</v>
+      </c>
+      <c r="V15" t="s">
+        <v>332</v>
+      </c>
+      <c r="X15" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA15">
+        <v>436</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" t="s">
+        <v>313</v>
+      </c>
+      <c r="T16" t="s">
+        <v>332</v>
+      </c>
+      <c r="V16" t="s">
+        <v>332</v>
+      </c>
+      <c r="X16" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA16">
+        <v>452</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" t="s">
+        <v>314</v>
+      </c>
+      <c r="T17" t="s">
+        <v>332</v>
+      </c>
+      <c r="V17" t="s">
+        <v>332</v>
+      </c>
+      <c r="X17" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA17">
+        <v>627</v>
+      </c>
+      <c r="AB17">
+        <v>529</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s">
+        <v>268</v>
+      </c>
+      <c r="M18" t="s">
+        <v>314</v>
+      </c>
+      <c r="T18" t="s">
+        <v>332</v>
+      </c>
+      <c r="V18" t="s">
+        <v>332</v>
+      </c>
+      <c r="X18" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" t="s">
+        <v>269</v>
+      </c>
+      <c r="M19" t="s">
+        <v>314</v>
+      </c>
+      <c r="T19" t="s">
+        <v>332</v>
+      </c>
+      <c r="V19" t="s">
+        <v>332</v>
+      </c>
+      <c r="X19" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M20" t="s">
+        <v>270</v>
+      </c>
+      <c r="T20" t="s">
+        <v>332</v>
+      </c>
+      <c r="V20" t="s">
+        <v>332</v>
+      </c>
+      <c r="X20" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB20">
+        <v>459</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M21" t="s">
+        <v>314</v>
+      </c>
+      <c r="N21" t="s">
+        <v>319</v>
+      </c>
+      <c r="O21" t="s">
+        <v>304</v>
+      </c>
+      <c r="P21" t="s">
+        <v>314</v>
+      </c>
+      <c r="T21" t="s">
+        <v>332</v>
+      </c>
+      <c r="V21" t="s">
+        <v>332</v>
+      </c>
+      <c r="X21" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" t="s">
+        <v>313</v>
+      </c>
+      <c r="T22" t="s">
+        <v>332</v>
+      </c>
+      <c r="V22" t="s">
+        <v>332</v>
+      </c>
+      <c r="X22" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="K9" t="s">
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>266</v>
+      </c>
+      <c r="M23" t="s">
+        <v>313</v>
+      </c>
+      <c r="T23" t="s">
+        <v>332</v>
+      </c>
+      <c r="V23" t="s">
+        <v>332</v>
+      </c>
+      <c r="X23" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB23">
+        <v>495</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>273</v>
+      </c>
+      <c r="M24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T24" t="s">
+        <v>332</v>
+      </c>
+      <c r="V24" t="s">
+        <v>332</v>
+      </c>
+      <c r="X24" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>274</v>
+      </c>
+      <c r="M25" t="s">
+        <v>313</v>
+      </c>
+      <c r="T25" t="s">
+        <v>332</v>
+      </c>
+      <c r="V25" t="s">
+        <v>332</v>
+      </c>
+      <c r="X25" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" t="s">
+        <v>313</v>
+      </c>
+      <c r="T26" t="s">
+        <v>332</v>
+      </c>
+      <c r="V26" t="s">
+        <v>332</v>
+      </c>
+      <c r="X26" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA26">
+        <v>442</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>275</v>
+      </c>
+      <c r="M27" t="s">
+        <v>316</v>
+      </c>
+      <c r="T27" t="s">
+        <v>332</v>
+      </c>
+      <c r="V27" t="s">
+        <v>332</v>
+      </c>
+      <c r="X27" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA27">
+        <v>410</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="s">
+        <v>313</v>
+      </c>
+      <c r="T28" t="s">
+        <v>332</v>
+      </c>
+      <c r="V28" t="s">
+        <v>332</v>
+      </c>
+      <c r="X28" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB28">
+        <v>476</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s">
+        <v>314</v>
+      </c>
+      <c r="T29" t="s">
+        <v>332</v>
+      </c>
+      <c r="V29" t="s">
+        <v>332</v>
+      </c>
+      <c r="X29" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA29">
+        <v>530</v>
+      </c>
+      <c r="AB29">
+        <v>528</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="s">
+        <v>313</v>
+      </c>
+      <c r="T30" t="s">
+        <v>332</v>
+      </c>
+      <c r="V30" t="s">
+        <v>332</v>
+      </c>
+      <c r="X30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA30">
+        <v>432</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31" t="s">
+        <v>315</v>
+      </c>
+      <c r="T31" t="s">
+        <v>332</v>
+      </c>
+      <c r="V31" t="s">
+        <v>332</v>
+      </c>
+      <c r="X31" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA31">
+        <v>473</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="L9" t="s">
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="s">
+        <v>310</v>
+      </c>
+      <c r="T32" t="s">
+        <v>332</v>
+      </c>
+      <c r="V32" t="s">
+        <v>332</v>
+      </c>
+      <c r="X32" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA32">
+        <v>485</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="s">
+        <v>258</v>
+      </c>
+      <c r="T33" t="s">
+        <v>332</v>
+      </c>
+      <c r="V33" t="s">
+        <v>332</v>
+      </c>
+      <c r="X33" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA33">
+        <v>456</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="s">
+        <v>289</v>
+      </c>
+      <c r="T34" t="s">
+        <v>332</v>
+      </c>
+      <c r="V34" t="s">
+        <v>332</v>
+      </c>
+      <c r="X34" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="s">
+        <v>314</v>
+      </c>
+      <c r="T35" t="s">
+        <v>332</v>
+      </c>
+      <c r="V35" t="s">
+        <v>332</v>
+      </c>
+      <c r="X35" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA35">
+        <v>543</v>
+      </c>
+      <c r="AB35">
+        <v>566</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="s">
+        <v>310</v>
+      </c>
+      <c r="T36" t="s">
+        <v>332</v>
+      </c>
+      <c r="V36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="s">
+        <v>313</v>
+      </c>
+      <c r="T37" t="s">
+        <v>332</v>
+      </c>
+      <c r="V37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA37">
+        <v>487</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" t="s">
+        <v>227</v>
+      </c>
+      <c r="L38" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s">
+        <v>316</v>
+      </c>
+      <c r="T38" t="s">
+        <v>332</v>
+      </c>
+      <c r="V38" t="s">
+        <v>332</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB38">
+        <v>429</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" t="s">
+        <v>193</v>
+      </c>
+      <c r="K39" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="s">
+        <v>313</v>
+      </c>
+      <c r="T39" t="s">
+        <v>332</v>
+      </c>
+      <c r="V39" t="s">
+        <v>332</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA39">
+        <v>426</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="M9" t="s">
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" t="s">
+        <v>193</v>
+      </c>
+      <c r="K40" t="s">
+        <v>229</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="s">
+        <v>313</v>
+      </c>
+      <c r="T40" t="s">
+        <v>332</v>
+      </c>
+      <c r="V40" t="s">
+        <v>332</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>230</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="s">
+        <v>315</v>
+      </c>
+      <c r="T41" t="s">
+        <v>332</v>
+      </c>
+      <c r="V41" t="s">
+        <v>332</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA41">
+        <v>429</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" t="s">
+        <v>288</v>
+      </c>
+      <c r="M42" t="s">
+        <v>313</v>
+      </c>
+      <c r="T42" t="s">
+        <v>332</v>
+      </c>
+      <c r="V42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA42">
+        <v>507</v>
+      </c>
+      <c r="AB42">
+        <v>430</v>
+      </c>
+      <c r="AC42">
+        <v>6</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="T9" t="s">
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" t="s">
+        <v>193</v>
+      </c>
+      <c r="K43" t="s">
+        <v>202</v>
+      </c>
+      <c r="L43" t="s">
+        <v>289</v>
+      </c>
+      <c r="M43" t="s">
+        <v>289</v>
+      </c>
+      <c r="T43" t="s">
+        <v>332</v>
+      </c>
+      <c r="V43" t="s">
+        <v>332</v>
+      </c>
+      <c r="X43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA43">
+        <v>450</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" t="s">
+        <v>314</v>
+      </c>
+      <c r="T44" t="s">
+        <v>332</v>
+      </c>
+      <c r="V44" t="s">
+        <v>332</v>
+      </c>
+      <c r="X44" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB44">
+        <v>455</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+      <c r="L45" t="s">
+        <v>291</v>
+      </c>
+      <c r="M45" t="s">
+        <v>310</v>
+      </c>
+      <c r="T45" t="s">
+        <v>332</v>
+      </c>
+      <c r="V45" t="s">
+        <v>332</v>
+      </c>
+      <c r="X45" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA45">
+        <v>550</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" t="s">
+        <v>231</v>
+      </c>
+      <c r="L46" t="s">
+        <v>268</v>
+      </c>
+      <c r="M46" t="s">
+        <v>314</v>
+      </c>
+      <c r="T46" t="s">
+        <v>332</v>
+      </c>
+      <c r="V46" t="s">
+        <v>332</v>
+      </c>
+      <c r="X46" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="V9" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" t="s">
+        <v>292</v>
+      </c>
+      <c r="M47" t="s">
+        <v>313</v>
+      </c>
+      <c r="T47" t="s">
+        <v>332</v>
+      </c>
+      <c r="V47" t="s">
+        <v>332</v>
+      </c>
+      <c r="X47" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M48" t="s">
+        <v>310</v>
+      </c>
+      <c r="T48" t="s">
+        <v>332</v>
+      </c>
+      <c r="V48" t="s">
+        <v>332</v>
+      </c>
+      <c r="X48" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="A49" t="s">
         <v>80</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" t="s">
+        <v>193</v>
+      </c>
+      <c r="K49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s">
+        <v>294</v>
+      </c>
+      <c r="M49" t="s">
+        <v>310</v>
+      </c>
+      <c r="T49" t="s">
+        <v>332</v>
+      </c>
+      <c r="V49" t="s">
+        <v>332</v>
+      </c>
+      <c r="X49" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB49">
+        <v>443</v>
+      </c>
+      <c r="AC49">
+        <v>6.5</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" t="s">
+        <v>193</v>
+      </c>
+      <c r="K50" t="s">
+        <v>234</v>
+      </c>
+      <c r="L50" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" t="s">
+        <v>315</v>
+      </c>
+      <c r="T50" t="s">
+        <v>332</v>
+      </c>
+      <c r="V50" t="s">
+        <v>332</v>
+      </c>
+      <c r="X50" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" t="s">
+        <v>235</v>
+      </c>
+      <c r="L51" t="s">
+        <v>296</v>
+      </c>
+      <c r="M51" t="s">
+        <v>314</v>
+      </c>
+      <c r="N51" t="s">
+        <v>320</v>
+      </c>
+      <c r="O51" t="s">
+        <v>327</v>
+      </c>
+      <c r="P51" t="s">
+        <v>314</v>
+      </c>
+      <c r="T51" t="s">
+        <v>332</v>
+      </c>
+      <c r="V51" t="s">
+        <v>332</v>
+      </c>
+      <c r="X51" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" t="s">
         <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" t="s">
+        <v>236</v>
+      </c>
+      <c r="L52" t="s">
+        <v>291</v>
+      </c>
+      <c r="M52" t="s">
+        <v>310</v>
+      </c>
+      <c r="N52" t="s">
+        <v>321</v>
+      </c>
+      <c r="O52" t="s">
+        <v>328</v>
+      </c>
+      <c r="P52" t="s">
+        <v>310</v>
+      </c>
+      <c r="T52" t="s">
+        <v>332</v>
+      </c>
+      <c r="V52" t="s">
+        <v>332</v>
+      </c>
+      <c r="X52" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB52">
+        <v>465</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" t="s">
+        <v>193</v>
+      </c>
+      <c r="K53" t="s">
+        <v>237</v>
+      </c>
+      <c r="L53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M53" t="s">
+        <v>316</v>
+      </c>
+      <c r="T53" t="s">
+        <v>332</v>
+      </c>
+      <c r="V53" t="s">
+        <v>332</v>
+      </c>
+      <c r="X53" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA53">
+        <v>490</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" t="s">
+        <v>206</v>
+      </c>
+      <c r="L54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M54" t="s">
+        <v>310</v>
+      </c>
+      <c r="T54" t="s">
+        <v>332</v>
+      </c>
+      <c r="V54" t="s">
+        <v>332</v>
+      </c>
+      <c r="X54" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA54">
+        <v>586</v>
+      </c>
+      <c r="AB54">
+        <v>586</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>191</v>
+      </c>
+      <c r="J55" t="s">
+        <v>193</v>
+      </c>
+      <c r="K55" t="s">
+        <v>238</v>
+      </c>
+      <c r="L55" t="s">
+        <v>298</v>
+      </c>
+      <c r="M55" t="s">
+        <v>315</v>
+      </c>
+      <c r="T55" t="s">
+        <v>332</v>
+      </c>
+      <c r="V55" t="s">
+        <v>332</v>
+      </c>
+      <c r="X55" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" t="s">
+        <v>193</v>
+      </c>
+      <c r="K56" t="s">
+        <v>239</v>
+      </c>
+      <c r="L56" t="s">
+        <v>299</v>
+      </c>
+      <c r="M56" t="s">
+        <v>311</v>
+      </c>
+      <c r="T56" t="s">
+        <v>332</v>
+      </c>
+      <c r="V56" t="s">
+        <v>332</v>
+      </c>
+      <c r="X56" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC56">
+        <v>110</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" t="s">
+        <v>193</v>
+      </c>
+      <c r="K57" t="s">
+        <v>240</v>
+      </c>
+      <c r="L57" t="s">
+        <v>300</v>
+      </c>
+      <c r="M57" t="s">
+        <v>310</v>
+      </c>
+      <c r="T57" t="s">
+        <v>332</v>
+      </c>
+      <c r="V57" t="s">
+        <v>332</v>
+      </c>
+      <c r="X57" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA57">
+        <v>458</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58" t="s">
+        <v>240</v>
+      </c>
+      <c r="L58" t="s">
+        <v>301</v>
+      </c>
+      <c r="M58" t="s">
+        <v>310</v>
+      </c>
+      <c r="T58" t="s">
+        <v>332</v>
+      </c>
+      <c r="V58" t="s">
+        <v>332</v>
+      </c>
+      <c r="X58" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" t="s">
+        <v>193</v>
+      </c>
+      <c r="K59" t="s">
+        <v>241</v>
+      </c>
+      <c r="L59" t="s">
+        <v>282</v>
+      </c>
+      <c r="M59" t="s">
+        <v>310</v>
+      </c>
+      <c r="T59" t="s">
+        <v>332</v>
+      </c>
+      <c r="V59" t="s">
+        <v>332</v>
+      </c>
+      <c r="X59" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB59">
+        <v>511</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>190</v>
+      </c>
+      <c r="J60" t="s">
+        <v>193</v>
+      </c>
+      <c r="K60" t="s">
+        <v>242</v>
+      </c>
+      <c r="L60" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" t="s">
+        <v>313</v>
+      </c>
+      <c r="T60" t="s">
+        <v>332</v>
+      </c>
+      <c r="V60" t="s">
+        <v>332</v>
+      </c>
+      <c r="X60" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA60">
+        <v>451</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61" t="s">
+        <v>193</v>
+      </c>
+      <c r="K61" t="s">
+        <v>203</v>
+      </c>
+      <c r="L61" t="s">
+        <v>301</v>
+      </c>
+      <c r="M61" t="s">
+        <v>310</v>
+      </c>
+      <c r="T61" t="s">
+        <v>332</v>
+      </c>
+      <c r="V61" t="s">
+        <v>332</v>
+      </c>
+      <c r="X61" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA61">
+        <v>436</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>190</v>
+      </c>
+      <c r="J62" t="s">
+        <v>193</v>
+      </c>
+      <c r="K62" t="s">
+        <v>228</v>
+      </c>
+      <c r="L62" t="s">
+        <v>276</v>
+      </c>
+      <c r="M62" t="s">
+        <v>313</v>
+      </c>
+      <c r="T62" t="s">
+        <v>332</v>
+      </c>
+      <c r="V62" t="s">
+        <v>332</v>
+      </c>
+      <c r="X62" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA62">
+        <v>432</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" t="s">
+        <v>237</v>
+      </c>
+      <c r="L63" t="s">
+        <v>256</v>
+      </c>
+      <c r="M63" t="s">
+        <v>256</v>
+      </c>
+      <c r="N63" t="s">
+        <v>228</v>
+      </c>
+      <c r="O63" t="s">
+        <v>329</v>
+      </c>
+      <c r="P63" t="s">
+        <v>256</v>
+      </c>
+      <c r="T63" t="s">
+        <v>332</v>
+      </c>
+      <c r="V63" t="s">
+        <v>332</v>
+      </c>
+      <c r="X63" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA63">
+        <v>520</v>
+      </c>
+      <c r="AC63">
+        <v>6</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" t="s">
+        <v>221</v>
+      </c>
+      <c r="L64" t="s">
+        <v>284</v>
+      </c>
+      <c r="M64" t="s">
+        <v>316</v>
+      </c>
+      <c r="T64" t="s">
+        <v>332</v>
+      </c>
+      <c r="V64" t="s">
+        <v>332</v>
+      </c>
+      <c r="X64" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA64">
+        <v>491</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" t="s">
+        <v>243</v>
+      </c>
+      <c r="L65" t="s">
+        <v>300</v>
+      </c>
+      <c r="M65" t="s">
+        <v>310</v>
+      </c>
+      <c r="N65" t="s">
+        <v>322</v>
+      </c>
+      <c r="O65" t="s">
+        <v>311</v>
+      </c>
+      <c r="P65" t="s">
+        <v>311</v>
+      </c>
+      <c r="T65" t="s">
+        <v>332</v>
+      </c>
+      <c r="V65" t="s">
+        <v>332</v>
+      </c>
+      <c r="X65" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" t="s">
+        <v>193</v>
+      </c>
+      <c r="K66" t="s">
+        <v>244</v>
+      </c>
+      <c r="L66" t="s">
+        <v>260</v>
+      </c>
+      <c r="M66" t="s">
+        <v>314</v>
+      </c>
+      <c r="T66" t="s">
+        <v>332</v>
+      </c>
+      <c r="V66" t="s">
+        <v>332</v>
+      </c>
+      <c r="X66" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA66">
+        <v>563</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>190</v>
+      </c>
+      <c r="J67" t="s">
+        <v>192</v>
+      </c>
+      <c r="K67" t="s">
+        <v>223</v>
+      </c>
+      <c r="L67" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" t="s">
+        <v>310</v>
+      </c>
+      <c r="N67" t="s">
+        <v>323</v>
+      </c>
+      <c r="O67" t="s">
+        <v>280</v>
+      </c>
+      <c r="P67" t="s">
+        <v>310</v>
+      </c>
+      <c r="T67" t="s">
+        <v>332</v>
+      </c>
+      <c r="V67" t="s">
+        <v>332</v>
+      </c>
+      <c r="X67" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA67">
+        <v>573</v>
+      </c>
+      <c r="AB67">
+        <v>542</v>
+      </c>
+      <c r="AC67">
+        <v>8</v>
+      </c>
+      <c r="AD67">
+        <v>760</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" t="s">
+        <v>193</v>
+      </c>
+      <c r="K68" t="s">
+        <v>202</v>
+      </c>
+      <c r="L68" t="s">
+        <v>303</v>
+      </c>
+      <c r="M68" t="s">
+        <v>310</v>
+      </c>
+      <c r="T68" t="s">
+        <v>332</v>
+      </c>
+      <c r="V68" t="s">
+        <v>332</v>
+      </c>
+      <c r="X68" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA68">
+        <v>465</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>189</v>
+      </c>
+      <c r="J69" t="s">
+        <v>193</v>
+      </c>
+      <c r="K69" t="s">
+        <v>245</v>
+      </c>
+      <c r="L69" t="s">
+        <v>304</v>
+      </c>
+      <c r="M69" t="s">
+        <v>314</v>
+      </c>
+      <c r="T69" t="s">
+        <v>332</v>
+      </c>
+      <c r="V69" t="s">
+        <v>332</v>
+      </c>
+      <c r="X69" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" t="s">
+        <v>193</v>
+      </c>
+      <c r="K70" t="s">
+        <v>237</v>
+      </c>
+      <c r="L70" t="s">
+        <v>269</v>
+      </c>
+      <c r="M70" t="s">
+        <v>314</v>
+      </c>
+      <c r="T70" t="s">
+        <v>332</v>
+      </c>
+      <c r="V70" t="s">
+        <v>332</v>
+      </c>
+      <c r="X70" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA70">
+        <v>549</v>
+      </c>
+      <c r="AB70">
+        <v>504</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>190</v>
+      </c>
+      <c r="J71" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" t="s">
+        <v>234</v>
+      </c>
+      <c r="L71" t="s">
+        <v>305</v>
+      </c>
+      <c r="M71" t="s">
+        <v>310</v>
+      </c>
+      <c r="T71" t="s">
+        <v>332</v>
+      </c>
+      <c r="V71" t="s">
+        <v>332</v>
+      </c>
+      <c r="X71" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>190</v>
+      </c>
+      <c r="J72" t="s">
+        <v>193</v>
+      </c>
+      <c r="K72" t="s">
+        <v>246</v>
+      </c>
+      <c r="L72" t="s">
+        <v>306</v>
+      </c>
+      <c r="M72" t="s">
+        <v>317</v>
+      </c>
+      <c r="T72" t="s">
+        <v>332</v>
+      </c>
+      <c r="V72" t="s">
+        <v>332</v>
+      </c>
+      <c r="X72" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA72">
+        <v>428</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>189</v>
+      </c>
+      <c r="J73" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" t="s">
+        <v>247</v>
+      </c>
+      <c r="L73" t="s">
+        <v>277</v>
+      </c>
+      <c r="M73" t="s">
+        <v>314</v>
+      </c>
+      <c r="T73" t="s">
+        <v>332</v>
+      </c>
+      <c r="V73" t="s">
+        <v>332</v>
+      </c>
+      <c r="X73" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC73">
+        <v>7</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" t="s">
+        <v>193</v>
+      </c>
+      <c r="K74" t="s">
+        <v>234</v>
+      </c>
+      <c r="L74" t="s">
+        <v>307</v>
+      </c>
+      <c r="M74" t="s">
+        <v>314</v>
+      </c>
+      <c r="T74" t="s">
+        <v>332</v>
+      </c>
+      <c r="V74" t="s">
+        <v>332</v>
+      </c>
+      <c r="X74" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA74">
+        <v>426</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>190</v>
+      </c>
+      <c r="J75" t="s">
+        <v>193</v>
+      </c>
+      <c r="K75" t="s">
+        <v>248</v>
+      </c>
+      <c r="L75" t="s">
+        <v>288</v>
+      </c>
+      <c r="M75" t="s">
+        <v>313</v>
+      </c>
+      <c r="T75" t="s">
+        <v>332</v>
+      </c>
+      <c r="V75" t="s">
+        <v>332</v>
+      </c>
+      <c r="X75" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB75">
+        <v>487</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>190</v>
+      </c>
+      <c r="J76" t="s">
+        <v>192</v>
+      </c>
+      <c r="K76" t="s">
+        <v>249</v>
+      </c>
+      <c r="L76" t="s">
+        <v>289</v>
+      </c>
+      <c r="M76" t="s">
+        <v>289</v>
+      </c>
+      <c r="N76" t="s">
+        <v>324</v>
+      </c>
+      <c r="O76" t="s">
+        <v>330</v>
+      </c>
+      <c r="P76" t="s">
+        <v>289</v>
+      </c>
+      <c r="T76" t="s">
+        <v>332</v>
+      </c>
+      <c r="V76" t="s">
+        <v>332</v>
+      </c>
+      <c r="X76" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB76">
+        <v>519</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" t="s">
+        <v>193</v>
+      </c>
+      <c r="K77" t="s">
+        <v>250</v>
+      </c>
+      <c r="L77" t="s">
+        <v>308</v>
+      </c>
+      <c r="M77" t="s">
+        <v>314</v>
+      </c>
+      <c r="T77" t="s">
+        <v>332</v>
+      </c>
+      <c r="V77" t="s">
+        <v>332</v>
+      </c>
+      <c r="X77" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78" t="s">
+        <v>192</v>
+      </c>
+      <c r="K78" t="s">
+        <v>251</v>
+      </c>
+      <c r="L78" t="s">
+        <v>309</v>
+      </c>
+      <c r="M78" t="s">
+        <v>312</v>
+      </c>
+      <c r="N78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O78" t="s">
+        <v>331</v>
+      </c>
+      <c r="P78" t="s">
+        <v>316</v>
+      </c>
+      <c r="T78" t="s">
+        <v>332</v>
+      </c>
+      <c r="V78" t="s">
+        <v>332</v>
+      </c>
+      <c r="X78" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
